--- a/pmapp/WBS_Data.xlsx
+++ b/pmapp/WBS_Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="343">
   <si>
     <t>Requirements funding</t>
   </si>
@@ -511,27 +511,9 @@
     <t>Document recommended enhancements to system</t>
   </si>
   <si>
-    <t>Project Title</t>
-  </si>
-  <si>
-    <t>Parent ID</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Task Description</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Resource ID</t>
-  </si>
-  <si>
     <t>Requirements Definition (Phase 1)</t>
   </si>
   <si>
@@ -1043,6 +1025,30 @@
   </si>
   <si>
     <t>Lauren Chavez</t>
+  </si>
+  <si>
+    <t>Bridgette Sanders</t>
+  </si>
+  <si>
+    <t>project_title</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>task_description</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>resource_id</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1114,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1133,11 +1165,37 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1478,7 +1536,7 @@
   <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1490,39 +1548,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>336</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>337</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>338</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>339</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>168</v>
+        <v>341</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E2" s="7">
         <v>43831</v>
@@ -1531,18 +1589,18 @@
         <v>43861</v>
       </c>
       <c r="G2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B3" s="3">
         <v>1.01</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>0</v>
@@ -1554,18 +1612,18 @@
         <v>43840</v>
       </c>
       <c r="G3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1577,18 +1635,18 @@
         <v>43833</v>
       </c>
       <c r="G4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -1600,18 +1658,18 @@
         <v>43840</v>
       </c>
       <c r="G5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
@@ -1623,18 +1681,18 @@
         <v>43840</v>
       </c>
       <c r="G6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -1646,18 +1704,18 @@
         <v>43840</v>
       </c>
       <c r="G7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -1669,18 +1727,18 @@
         <v>43840</v>
       </c>
       <c r="G8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B9" s="3">
         <v>1.02</v>
       </c>
       <c r="C9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>6</v>
@@ -1692,18 +1750,18 @@
         <v>43850</v>
       </c>
       <c r="G9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
@@ -1715,18 +1773,18 @@
         <v>43848</v>
       </c>
       <c r="G10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
@@ -1738,18 +1796,18 @@
         <v>43845</v>
       </c>
       <c r="G11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -1761,18 +1819,18 @@
         <v>43849</v>
       </c>
       <c r="G12" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>10</v>
@@ -1784,18 +1842,18 @@
         <v>43850</v>
       </c>
       <c r="G13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B14" s="3">
         <v>1.03</v>
       </c>
       <c r="C14" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1807,18 +1865,18 @@
         <v>43850</v>
       </c>
       <c r="G14" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>12</v>
@@ -1830,18 +1888,18 @@
         <v>43850</v>
       </c>
       <c r="G15" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>13</v>
@@ -1853,18 +1911,18 @@
         <v>43855</v>
       </c>
       <c r="G16" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
@@ -1876,18 +1934,18 @@
         <v>43855</v>
       </c>
       <c r="G17" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
@@ -1899,18 +1957,18 @@
         <v>43855</v>
       </c>
       <c r="G18" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B19" s="3">
         <v>1.04</v>
       </c>
       <c r="C19" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>16</v>
@@ -1922,18 +1980,18 @@
         <v>43855</v>
       </c>
       <c r="G19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -1945,18 +2003,18 @@
         <v>43840</v>
       </c>
       <c r="G20" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>18</v>
@@ -1968,18 +2026,18 @@
         <v>43842</v>
       </c>
       <c r="G21" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -1991,18 +2049,18 @@
         <v>43842</v>
       </c>
       <c r="G22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>20</v>
@@ -2014,18 +2072,18 @@
         <v>43838</v>
       </c>
       <c r="G23" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>21</v>
@@ -2037,18 +2095,18 @@
         <v>43846</v>
       </c>
       <c r="G24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>22</v>
@@ -2060,18 +2118,18 @@
         <v>43855</v>
       </c>
       <c r="G25" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B26" s="3">
         <v>1.05</v>
       </c>
       <c r="C26" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>23</v>
@@ -2083,18 +2141,18 @@
         <v>43858</v>
       </c>
       <c r="G26" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>24</v>
@@ -2106,18 +2164,18 @@
         <v>43850</v>
       </c>
       <c r="G27" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C28" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>25</v>
@@ -2129,18 +2187,18 @@
         <v>43850</v>
       </c>
       <c r="G28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C29" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>26</v>
@@ -2152,18 +2210,18 @@
         <v>43852</v>
       </c>
       <c r="G29" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>27</v>
@@ -2175,18 +2233,18 @@
         <v>43854</v>
       </c>
       <c r="G30" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>28</v>
@@ -2198,18 +2256,18 @@
         <v>43858</v>
       </c>
       <c r="G31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B32" s="3">
         <v>1.06</v>
       </c>
       <c r="C32" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>29</v>
@@ -2221,2931 +2279,3963 @@
         <v>43861</v>
       </c>
       <c r="G32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E33" s="7">
+        <v>43848</v>
+      </c>
+      <c r="F33" s="7">
+        <v>43848</v>
+      </c>
       <c r="G33" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E34" s="7">
+        <v>43849</v>
+      </c>
+      <c r="F34" s="7">
+        <v>43849</v>
+      </c>
       <c r="G34" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="E35" s="7">
+        <v>43850</v>
+      </c>
+      <c r="F35" s="7">
+        <v>43850</v>
+      </c>
       <c r="G35" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C36" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E36" s="7">
+        <v>43851</v>
+      </c>
+      <c r="F36" s="7">
+        <v>43858</v>
+      </c>
       <c r="G36" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E37" s="7">
+        <v>43855</v>
+      </c>
+      <c r="F37" s="7">
+        <v>43859</v>
+      </c>
       <c r="G37" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="E38" s="7">
+        <v>43862</v>
+      </c>
+      <c r="F38" s="7">
+        <v>43890</v>
+      </c>
       <c r="G38" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B39" s="3">
         <v>2.0099999999999998</v>
       </c>
       <c r="C39" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="E39" s="7">
+        <v>43862</v>
+      </c>
+      <c r="F39" s="7">
+        <v>43876</v>
+      </c>
       <c r="G39" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="E40" s="7">
+        <v>43866</v>
+      </c>
+      <c r="F40" s="7">
+        <v>43871</v>
+      </c>
       <c r="G40" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="E41" s="7">
+        <v>43866</v>
+      </c>
+      <c r="F41" s="7">
+        <v>43871</v>
+      </c>
       <c r="G41" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="E42" s="7">
+        <v>43870</v>
+      </c>
+      <c r="F42" s="7">
+        <v>43876</v>
+      </c>
       <c r="G42" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="E43" s="7">
+        <v>43870</v>
+      </c>
+      <c r="F43" s="7">
+        <v>43876</v>
+      </c>
       <c r="G43" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B44" s="3">
         <v>2.02</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="E44" s="7">
+        <v>43876</v>
+      </c>
+      <c r="F44" s="7">
+        <v>43881</v>
+      </c>
       <c r="G44" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="E45" s="7">
+        <v>43871</v>
+      </c>
+      <c r="F45" s="7">
+        <v>43881</v>
+      </c>
       <c r="G45" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E46" s="7">
+        <v>43872</v>
+      </c>
+      <c r="F46" s="7">
+        <v>43879</v>
+      </c>
       <c r="G46" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B47" s="3">
         <v>2.0299999999999998</v>
       </c>
       <c r="C47" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="E47" s="7">
+        <v>43871</v>
+      </c>
+      <c r="F47" s="7">
+        <v>43881</v>
+      </c>
       <c r="G47" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C48" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="E48" s="7">
+        <v>43871</v>
+      </c>
+      <c r="F48" s="7">
+        <v>43881</v>
+      </c>
       <c r="G48" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E49" s="7">
+        <v>43879</v>
+      </c>
+      <c r="F49" s="7">
+        <v>43886</v>
+      </c>
       <c r="G49" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="E50" s="7">
+        <v>43881</v>
+      </c>
+      <c r="F50" s="7">
+        <v>43886</v>
+      </c>
       <c r="G50" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B51" s="3">
         <v>2.04</v>
       </c>
       <c r="C51" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="E51" s="7">
+        <v>43863</v>
+      </c>
+      <c r="F51" s="7">
+        <v>43876</v>
+      </c>
       <c r="G51" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="E52" s="7">
+        <v>43879</v>
+      </c>
+      <c r="F52" s="7">
+        <v>43881</v>
+      </c>
       <c r="G52" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E53" s="7">
+        <v>43876</v>
+      </c>
+      <c r="F53" s="7">
+        <v>43886</v>
+      </c>
       <c r="G53" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E54" s="7">
+        <v>43876</v>
+      </c>
+      <c r="F54" s="7">
+        <v>43881</v>
+      </c>
       <c r="G54" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B55" s="3">
         <v>2.0499999999999998</v>
       </c>
       <c r="C55" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="E55" s="7">
+        <v>43879</v>
+      </c>
+      <c r="F55" s="7">
+        <v>43887</v>
+      </c>
       <c r="G55" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="E56" s="7">
+        <v>43876</v>
+      </c>
+      <c r="F56" s="7">
+        <v>43882</v>
+      </c>
       <c r="G56" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C57" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E57" s="7">
+        <v>43877</v>
+      </c>
+      <c r="F57" s="7">
+        <v>43883</v>
+      </c>
       <c r="G57" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C58" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="E58" s="7">
+        <v>43876</v>
+      </c>
+      <c r="F58" s="7">
+        <v>43887</v>
+      </c>
       <c r="G58" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B59" s="3">
         <v>2.06</v>
       </c>
       <c r="C59" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="E59" s="7">
+        <v>43871</v>
+      </c>
+      <c r="F59" s="7">
+        <v>43886</v>
+      </c>
       <c r="G59" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C60" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E60" s="7">
+        <v>43881</v>
+      </c>
+      <c r="F60" s="7">
+        <v>43882</v>
+      </c>
       <c r="G60" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C61" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E61" s="7">
+        <v>43879</v>
+      </c>
+      <c r="F61" s="7">
+        <v>43883</v>
+      </c>
       <c r="G61" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B62" s="3">
         <v>2.0699999999999998</v>
       </c>
       <c r="C62" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="E62" s="7">
+        <v>43869</v>
+      </c>
+      <c r="F62" s="7">
+        <v>43888</v>
+      </c>
       <c r="G62" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="E63" s="7">
+        <v>43866</v>
+      </c>
+      <c r="F63" s="7">
+        <v>43890</v>
+      </c>
       <c r="G63" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E64" s="7">
+        <v>43887</v>
+      </c>
+      <c r="F64" s="7">
+        <v>43890</v>
+      </c>
       <c r="G64" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C65" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E65" s="7">
+        <v>43880</v>
+      </c>
+      <c r="F65" s="7">
+        <v>43885</v>
+      </c>
       <c r="G65" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C66" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="E66" s="7">
+        <v>43885</v>
+      </c>
+      <c r="F66" s="7">
+        <v>43886</v>
+      </c>
       <c r="G66" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B67" s="3">
         <v>2.08</v>
       </c>
       <c r="C67" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="E67" s="7">
+        <v>43888</v>
+      </c>
+      <c r="F67" s="7">
+        <v>43889</v>
+      </c>
       <c r="G67" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="E68" s="7">
+        <v>43888</v>
+      </c>
+      <c r="F68" s="7">
+        <v>43889</v>
+      </c>
       <c r="G68" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="E69" s="7">
+        <v>43888</v>
+      </c>
+      <c r="F69" s="7">
+        <v>43889</v>
+      </c>
       <c r="G69" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="E70" s="7">
+        <v>43888</v>
+      </c>
+      <c r="F70" s="7">
+        <v>43889</v>
+      </c>
       <c r="G70" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C71" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="E71" s="7">
+        <v>43881</v>
+      </c>
+      <c r="F71" s="7">
+        <v>43890</v>
+      </c>
       <c r="G71" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B72" s="3">
         <v>2.09</v>
       </c>
       <c r="C72" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="E72" s="7">
+        <v>43889</v>
+      </c>
+      <c r="F72" s="7">
+        <v>43890</v>
+      </c>
       <c r="G72" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C73" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="E73" s="7">
+        <v>43887</v>
+      </c>
+      <c r="F73" s="7">
+        <v>43888</v>
+      </c>
       <c r="G73" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E74" s="7">
+        <v>43871</v>
+      </c>
+      <c r="F74" s="7">
+        <v>43888</v>
+      </c>
       <c r="G74" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C75" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E75" s="7">
+        <v>43871</v>
+      </c>
+      <c r="F75" s="7">
+        <v>43889</v>
+      </c>
       <c r="G75" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C76" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E76" s="7">
+        <v>43886</v>
+      </c>
+      <c r="F76" s="7">
+        <v>43888</v>
+      </c>
       <c r="G76" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C77" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E77" s="7">
+        <v>43888</v>
+      </c>
+      <c r="F77" s="7">
+        <v>43889</v>
+      </c>
       <c r="G77" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B78" s="3">
         <v>2.1</v>
       </c>
       <c r="C78" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="E78" s="7">
+        <v>43886</v>
+      </c>
+      <c r="F78" s="7">
+        <v>43890</v>
+      </c>
       <c r="G78" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C79" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E79" s="7">
+        <v>43881</v>
+      </c>
+      <c r="F79" s="7">
+        <v>43882</v>
+      </c>
       <c r="G79" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C80" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E80" s="7">
+        <v>43889</v>
+      </c>
+      <c r="F80" s="7">
+        <v>43890</v>
+      </c>
       <c r="G80" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C81" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="E81" s="7">
+        <v>43889</v>
+      </c>
+      <c r="F81" s="7">
+        <v>43890</v>
+      </c>
       <c r="G81" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C82" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E82" s="7">
+        <v>43889</v>
+      </c>
+      <c r="F82" s="7">
+        <v>43890</v>
+      </c>
       <c r="G82" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C83" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E83" s="7">
+        <v>43889</v>
+      </c>
+      <c r="F83" s="7">
+        <v>43890</v>
+      </c>
       <c r="G83" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B84" s="2">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="E84" s="7">
+        <v>43891</v>
+      </c>
+      <c r="F84" s="7">
+        <v>43921</v>
+      </c>
       <c r="G84" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B85" s="3">
         <v>3.01</v>
       </c>
       <c r="C85" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>73</v>
       </c>
+      <c r="E85" s="7">
+        <v>43891</v>
+      </c>
+      <c r="F85" s="7">
+        <v>43904</v>
+      </c>
       <c r="G85" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C86" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="E86" s="7">
+        <v>43900</v>
+      </c>
+      <c r="F86" s="7">
+        <v>43905</v>
+      </c>
       <c r="G86" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C87" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="E87" s="7">
+        <v>43891</v>
+      </c>
+      <c r="F87" s="7">
+        <v>43893</v>
+      </c>
       <c r="G87" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C88" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="E88" s="7">
+        <v>43902</v>
+      </c>
+      <c r="F88" s="7">
+        <v>43906</v>
+      </c>
       <c r="G88" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C89" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="E89" s="7">
+        <v>43891</v>
+      </c>
+      <c r="F89" s="7">
+        <v>43895</v>
+      </c>
       <c r="G89" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C90" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="E90" s="7">
+        <v>43898</v>
+      </c>
+      <c r="F90" s="7">
+        <v>43906</v>
+      </c>
       <c r="G90" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C91" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="E91" s="7">
+        <v>43900</v>
+      </c>
+      <c r="F91" s="7">
+        <v>43903</v>
+      </c>
       <c r="G91" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C92" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="E92" s="7">
+        <v>43894</v>
+      </c>
+      <c r="F92" s="7">
+        <v>43904</v>
+      </c>
       <c r="G92" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C93" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="E93" s="7">
+        <v>43898</v>
+      </c>
+      <c r="F93" s="7">
+        <v>43903</v>
+      </c>
       <c r="G93" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C94" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="E94" s="7">
+        <v>43902</v>
+      </c>
+      <c r="F94" s="7">
+        <v>43903</v>
+      </c>
       <c r="G94" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C95" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="E95" s="7">
+        <v>43904</v>
+      </c>
+      <c r="F95" s="7">
+        <v>43905</v>
+      </c>
       <c r="G95" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B96" s="3">
         <v>3.02</v>
       </c>
       <c r="C96" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>84</v>
       </c>
+      <c r="E96" s="7">
+        <v>43892</v>
+      </c>
+      <c r="F96" s="7">
+        <v>43898</v>
+      </c>
       <c r="G96" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="E97" s="7">
+        <v>43900</v>
+      </c>
+      <c r="F97" s="7">
+        <v>43902</v>
+      </c>
       <c r="G97" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="E98" s="7">
+        <v>43909</v>
+      </c>
+      <c r="F98" s="7">
+        <v>43913</v>
+      </c>
       <c r="G98" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C99" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>87</v>
       </c>
+      <c r="E99" s="7">
+        <v>43917</v>
+      </c>
+      <c r="F99" s="7">
+        <v>43920</v>
+      </c>
       <c r="G99" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C100" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="E100" s="7">
+        <v>43891</v>
+      </c>
+      <c r="F100" s="7">
+        <v>43895</v>
+      </c>
       <c r="G100" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="E101" s="7">
+        <v>43904</v>
+      </c>
+      <c r="F101" s="7">
+        <v>43908</v>
+      </c>
       <c r="G101" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C102" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="E102" s="7">
+        <v>43919</v>
+      </c>
+      <c r="F102" s="7">
+        <v>43920</v>
+      </c>
       <c r="G102" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B103" s="3">
         <v>3.03</v>
       </c>
       <c r="C103" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>91</v>
       </c>
+      <c r="E103" s="7">
+        <v>43906</v>
+      </c>
+      <c r="F103" s="7">
+        <v>43911</v>
+      </c>
       <c r="G103" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C104" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="E104" s="7">
+        <v>43897</v>
+      </c>
+      <c r="F104" s="7">
+        <v>43900</v>
+      </c>
       <c r="G104" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C105" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="E105" s="7">
+        <v>43904</v>
+      </c>
+      <c r="F105" s="7">
+        <v>43908</v>
+      </c>
       <c r="G105" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="E106" s="7">
+        <v>43919</v>
+      </c>
+      <c r="F106" s="7">
+        <v>43920</v>
+      </c>
       <c r="G106" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C107" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="E107" s="7">
+        <v>43900</v>
+      </c>
+      <c r="F107" s="7">
+        <v>43909</v>
+      </c>
       <c r="G107" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="E108" s="7">
+        <v>43914</v>
+      </c>
+      <c r="F108" s="7">
+        <v>43916</v>
+      </c>
       <c r="G108" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B109" s="3">
         <v>3.04</v>
       </c>
       <c r="C109" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="E109" s="7">
+        <v>43896</v>
+      </c>
+      <c r="F109" s="7">
+        <v>43905</v>
+      </c>
       <c r="G109" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C110" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="E110" s="7">
+        <v>43894</v>
+      </c>
+      <c r="F110" s="7">
+        <v>43899</v>
+      </c>
       <c r="G110" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C111" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="E111" s="7">
+        <v>43897</v>
+      </c>
+      <c r="F111" s="7">
+        <v>43899</v>
+      </c>
       <c r="G111" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C112" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="E112" s="7">
+        <v>43909</v>
+      </c>
+      <c r="F112" s="7">
+        <v>43913</v>
+      </c>
       <c r="G112" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="E113" s="7">
+        <v>43910</v>
+      </c>
+      <c r="F113" s="7">
+        <v>43912</v>
+      </c>
       <c r="G113" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C114" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="E114" s="7">
+        <v>43894</v>
+      </c>
+      <c r="F114" s="7">
+        <v>43896</v>
+      </c>
       <c r="G114" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C115" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="E115" s="7">
+        <v>43908</v>
+      </c>
+      <c r="F115" s="7">
+        <v>43911</v>
+      </c>
       <c r="G115" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C116" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="E116" s="7">
+        <v>43893</v>
+      </c>
+      <c r="F116" s="7">
+        <v>43895</v>
+      </c>
       <c r="G116" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B117" s="3">
         <v>3.05</v>
       </c>
       <c r="C117" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>105</v>
       </c>
+      <c r="E117" s="7">
+        <v>43906</v>
+      </c>
+      <c r="F117" s="7">
+        <v>43907</v>
+      </c>
       <c r="G117" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C118" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="E118" s="7">
+        <v>43916</v>
+      </c>
+      <c r="F118" s="7">
+        <v>43920</v>
+      </c>
       <c r="G118" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C119" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="E119" s="7">
+        <v>43915</v>
+      </c>
+      <c r="F119" s="7">
+        <v>43916</v>
+      </c>
       <c r="G119" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B120" s="3">
         <v>3.06</v>
       </c>
       <c r="C120" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>108</v>
       </c>
+      <c r="E120" s="7">
+        <v>43909</v>
+      </c>
+      <c r="F120" s="7">
+        <v>43914</v>
+      </c>
       <c r="G120" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C121" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="E121" s="7">
+        <v>43911</v>
+      </c>
+      <c r="F121" s="7">
+        <v>43913</v>
+      </c>
       <c r="G121" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C122" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="E122" s="7">
+        <v>43918</v>
+      </c>
+      <c r="F122" s="7">
+        <v>43921</v>
+      </c>
       <c r="G122" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C123" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="E123" s="7">
+        <v>43896</v>
+      </c>
+      <c r="F123" s="7">
+        <v>43902</v>
+      </c>
       <c r="G123" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C124" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="E124" s="7">
+        <v>43891</v>
+      </c>
+      <c r="F124" s="7">
+        <v>43915</v>
+      </c>
       <c r="G124" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C125" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="E125" s="7">
+        <v>43912</v>
+      </c>
+      <c r="F125" s="7">
+        <v>43915</v>
+      </c>
       <c r="G125" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C126" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="E126" s="7">
+        <v>43895</v>
+      </c>
+      <c r="F126" s="7">
+        <v>43909</v>
+      </c>
       <c r="G126" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B127" s="3">
         <v>3.07</v>
       </c>
       <c r="C127" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="E127" s="7">
+        <v>43908</v>
+      </c>
+      <c r="F127" s="7">
+        <v>43909</v>
+      </c>
       <c r="G127" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C128" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="E128" s="7">
+        <v>43920</v>
+      </c>
+      <c r="F128" s="7">
+        <v>43921</v>
+      </c>
       <c r="G128" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C129" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E129" s="7">
+        <v>43908</v>
+      </c>
+      <c r="F129" s="7">
+        <v>43910</v>
+      </c>
       <c r="G129" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C130" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="E130" s="7">
+        <v>43900</v>
+      </c>
+      <c r="F130" s="7">
+        <v>43903</v>
+      </c>
       <c r="G130" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C131" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E131" s="7">
+        <v>43904</v>
+      </c>
+      <c r="F131" s="7">
+        <v>43906</v>
+      </c>
       <c r="G131" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B132" s="3">
         <v>3.08</v>
       </c>
       <c r="C132" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="E132" s="7">
+        <v>43916</v>
+      </c>
+      <c r="F132" s="7">
+        <v>43918</v>
+      </c>
       <c r="G132" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C133" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E133" s="7">
+        <v>43917</v>
+      </c>
+      <c r="F133" s="7">
+        <v>43918</v>
+      </c>
       <c r="G133" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C134" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E134" s="7">
+        <v>43899</v>
+      </c>
+      <c r="F134" s="7">
+        <v>43902</v>
+      </c>
       <c r="G134" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C135" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="E135" s="7">
+        <v>43920</v>
+      </c>
+      <c r="F135" s="7">
+        <v>43921</v>
+      </c>
       <c r="G135" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C136" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E136" s="7">
+        <v>43915</v>
+      </c>
+      <c r="F136" s="7">
+        <v>43918</v>
+      </c>
       <c r="G136" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C137" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E137" s="7">
+        <v>43903</v>
+      </c>
+      <c r="F137" s="7">
+        <v>43909</v>
+      </c>
       <c r="G137" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B138" s="2">
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>114</v>
       </c>
+      <c r="E138" s="7">
+        <v>43922</v>
+      </c>
+      <c r="F138" s="7">
+        <v>43951</v>
+      </c>
       <c r="G138" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B139" s="3">
         <v>4.01</v>
       </c>
       <c r="C139" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="E139" s="7">
+        <v>43922</v>
+      </c>
+      <c r="F139" s="7">
+        <v>43931</v>
+      </c>
       <c r="G139" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C140" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>116</v>
       </c>
+      <c r="E140" s="7">
+        <v>43922</v>
+      </c>
+      <c r="F140" s="7">
+        <v>43931</v>
+      </c>
       <c r="G140" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C141" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="E141" s="7">
+        <v>43922</v>
+      </c>
+      <c r="F141" s="7">
+        <v>43937</v>
+      </c>
       <c r="G141" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C142" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>118</v>
       </c>
+      <c r="E142" s="7">
+        <v>43924</v>
+      </c>
+      <c r="F142" s="7">
+        <v>43931</v>
+      </c>
       <c r="G142" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C143" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="E143" s="7">
+        <v>43925</v>
+      </c>
+      <c r="F143" s="7">
+        <v>43931</v>
+      </c>
       <c r="G143" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B144" s="3">
         <v>4.0199999999999996</v>
       </c>
       <c r="C144" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>120</v>
       </c>
+      <c r="E144" s="7">
+        <v>43932</v>
+      </c>
+      <c r="F144" s="7">
+        <v>43941</v>
+      </c>
       <c r="G144" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C145" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>121</v>
       </c>
+      <c r="E145" s="7">
+        <v>43932</v>
+      </c>
+      <c r="F145" s="7">
+        <v>43941</v>
+      </c>
       <c r="G145" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C146" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>122</v>
       </c>
+      <c r="E146" s="7">
+        <v>43942</v>
+      </c>
+      <c r="F146" s="7">
+        <v>43943</v>
+      </c>
       <c r="G146" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C147" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="E147" s="7">
+        <v>43941</v>
+      </c>
+      <c r="F147" s="7">
+        <v>43950</v>
+      </c>
       <c r="G147" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C148" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>124</v>
       </c>
+      <c r="E148" s="7">
+        <v>43936</v>
+      </c>
+      <c r="F148" s="7">
+        <v>43950</v>
+      </c>
       <c r="G148" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C149" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="E149" s="7">
+        <v>43941</v>
+      </c>
+      <c r="F149" s="7">
+        <v>43944</v>
+      </c>
       <c r="G149" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C150" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="E150" s="7">
+        <v>43941</v>
+      </c>
+      <c r="F150" s="7">
+        <v>43951</v>
+      </c>
       <c r="G150" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B151" s="3">
         <v>4.03</v>
       </c>
       <c r="C151" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="E151" s="7">
+        <v>43936</v>
+      </c>
+      <c r="F151" s="7">
+        <v>43939</v>
+      </c>
       <c r="G151" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C152" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="E152" s="7">
+        <v>43944</v>
+      </c>
+      <c r="F152" s="7">
+        <v>43945</v>
+      </c>
       <c r="G152" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C153" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="E153" s="7">
+        <v>43945</v>
+      </c>
+      <c r="F153" s="7">
+        <v>43946</v>
+      </c>
       <c r="G153" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B154" s="3">
         <v>4.04</v>
       </c>
       <c r="C154" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="E154" s="7">
+        <v>43942</v>
+      </c>
+      <c r="F154" s="7">
+        <v>43943</v>
+      </c>
       <c r="G154" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C155" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E155" s="7">
+        <v>43942</v>
+      </c>
+      <c r="F155" s="7">
+        <v>43943</v>
+      </c>
       <c r="G155" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C156" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E156" s="7">
+        <v>43942</v>
+      </c>
+      <c r="F156" s="7">
+        <v>43943</v>
+      </c>
       <c r="G156" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C157" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="E157" s="7">
+        <v>43942</v>
+      </c>
+      <c r="F157" s="7">
+        <v>43943</v>
+      </c>
       <c r="G157" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C158" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E158" s="7">
+        <v>43949</v>
+      </c>
+      <c r="F158" s="7">
+        <v>43950</v>
+      </c>
       <c r="G158" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C159" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E159" s="7">
+        <v>43949</v>
+      </c>
+      <c r="F159" s="7">
+        <v>43950</v>
+      </c>
       <c r="G159" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B160" s="2">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>128</v>
       </c>
+      <c r="E160" s="7">
+        <v>43952</v>
+      </c>
+      <c r="F160" s="7">
+        <v>43982</v>
+      </c>
       <c r="G160" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B161" s="3">
         <v>5.01</v>
       </c>
       <c r="C161" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>129</v>
       </c>
+      <c r="E161" s="7">
+        <v>43952</v>
+      </c>
+      <c r="F161" s="7">
+        <v>43953</v>
+      </c>
       <c r="G161" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C162" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>130</v>
       </c>
+      <c r="E162" s="7">
+        <v>43952</v>
+      </c>
+      <c r="F162" s="7">
+        <v>43953</v>
+      </c>
       <c r="G162" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C163" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>131</v>
       </c>
+      <c r="E163" s="7">
+        <v>43954</v>
+      </c>
+      <c r="F163" s="7">
+        <v>43961</v>
+      </c>
       <c r="G163" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C164" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="E164" s="7">
+        <v>43955</v>
+      </c>
+      <c r="F164" s="7">
+        <v>43962</v>
+      </c>
       <c r="G164" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C165" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="E165" s="7">
+        <v>43956</v>
+      </c>
+      <c r="F165" s="7">
+        <v>43962</v>
+      </c>
       <c r="G165" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C166" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="E166" s="7">
+        <v>43957</v>
+      </c>
+      <c r="F166" s="7">
+        <v>43963</v>
+      </c>
       <c r="G166" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C167" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>135</v>
       </c>
+      <c r="E167" s="7">
+        <v>43960</v>
+      </c>
+      <c r="F167" s="7">
+        <v>43961</v>
+      </c>
       <c r="G167" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B168" s="3">
         <v>5.0199999999999996</v>
       </c>
       <c r="C168" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>136</v>
       </c>
+      <c r="E168" s="7">
+        <v>43959</v>
+      </c>
+      <c r="F168" s="7">
+        <v>43963</v>
+      </c>
       <c r="G168" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C169" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>130</v>
       </c>
+      <c r="E169" s="7">
+        <v>43963</v>
+      </c>
+      <c r="F169" s="7">
+        <v>43964</v>
+      </c>
       <c r="G169" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C170" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="E170" s="7">
+        <v>43959</v>
+      </c>
+      <c r="F170" s="7">
+        <v>43963</v>
+      </c>
       <c r="G170" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C171" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="E171" s="7">
+        <v>43952</v>
+      </c>
+      <c r="F171" s="7">
+        <v>43966</v>
+      </c>
       <c r="G171" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C172" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>139</v>
       </c>
+      <c r="E172" s="7">
+        <v>43957</v>
+      </c>
+      <c r="F172" s="7">
+        <v>43965</v>
+      </c>
       <c r="G172" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C173" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="E173" s="7">
+        <v>43962</v>
+      </c>
+      <c r="F173" s="7">
+        <v>43963</v>
+      </c>
       <c r="G173" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C174" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="E174" s="7">
+        <v>43963</v>
+      </c>
+      <c r="F174" s="7">
+        <v>43969</v>
+      </c>
       <c r="G174" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C175" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>142</v>
       </c>
+      <c r="E175" s="7">
+        <v>43969</v>
+      </c>
+      <c r="F175" s="7">
+        <v>43970</v>
+      </c>
       <c r="G175" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B176" s="3">
         <v>5.03</v>
       </c>
       <c r="C176" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>143</v>
       </c>
+      <c r="E176" s="7">
+        <v>43973</v>
+      </c>
+      <c r="F176" s="7">
+        <v>43975</v>
+      </c>
       <c r="G176" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C177" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="E177" s="7">
+        <v>43972</v>
+      </c>
+      <c r="F177" s="7">
+        <v>43973</v>
+      </c>
       <c r="G177" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C178" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="E178" s="7">
+        <v>43969</v>
+      </c>
+      <c r="F178" s="7">
+        <v>43971</v>
+      </c>
       <c r="G178" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C179" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="E179" s="7">
+        <v>43971</v>
+      </c>
+      <c r="F179" s="7">
+        <v>43974</v>
+      </c>
       <c r="G179" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B180" s="3">
         <v>5.04</v>
       </c>
       <c r="C180" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="E180" s="7">
+        <v>43976</v>
+      </c>
+      <c r="F180" s="7">
+        <v>43979</v>
+      </c>
       <c r="G180" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C181" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>148</v>
       </c>
+      <c r="E181" s="7">
+        <v>43967</v>
+      </c>
+      <c r="F181" s="7">
+        <v>43975</v>
+      </c>
       <c r="G181" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C182" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="E182" s="7">
+        <v>43973</v>
+      </c>
+      <c r="F182" s="7">
+        <v>43975</v>
+      </c>
       <c r="G182" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C183" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="E183" s="7">
+        <v>43977</v>
+      </c>
+      <c r="F183" s="7">
+        <v>43979</v>
+      </c>
       <c r="G183" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B184" s="3">
         <v>5.05</v>
       </c>
       <c r="C184" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="E184" s="7">
+        <v>43965</v>
+      </c>
+      <c r="F184" s="7">
+        <v>43973</v>
+      </c>
       <c r="G184" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C185" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E185" s="7">
+        <v>43976</v>
+      </c>
+      <c r="F185" s="7">
+        <v>43977</v>
+      </c>
       <c r="G185" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C186" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E186" s="7">
+        <v>43979</v>
+      </c>
+      <c r="F186" s="7">
+        <v>43980</v>
+      </c>
       <c r="G186" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C187" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="E187" s="7">
+        <v>43979</v>
+      </c>
+      <c r="F187" s="7">
+        <v>43980</v>
+      </c>
       <c r="G187" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C188" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E188" s="7">
+        <v>43979</v>
+      </c>
+      <c r="F188" s="7">
+        <v>43982</v>
+      </c>
       <c r="G188" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C189" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E189" s="7">
+        <v>43980</v>
+      </c>
+      <c r="F189" s="7">
+        <v>43982</v>
+      </c>
       <c r="G189" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B190" s="2">
         <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>150</v>
       </c>
+      <c r="E190" s="7">
+        <v>43983</v>
+      </c>
+      <c r="F190" s="7">
+        <v>44012</v>
+      </c>
       <c r="G190" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B191" s="3">
         <v>6.01</v>
       </c>
       <c r="C191" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>151</v>
       </c>
+      <c r="E191" s="7">
+        <v>43983</v>
+      </c>
+      <c r="F191" s="7">
+        <v>43985</v>
+      </c>
       <c r="G191" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C192" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="E192" s="7">
+        <v>43984</v>
+      </c>
+      <c r="F192" s="7">
+        <v>43987</v>
+      </c>
       <c r="G192" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C193" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>153</v>
       </c>
+      <c r="E193" s="7">
+        <v>43985</v>
+      </c>
+      <c r="F193" s="7">
+        <v>43994</v>
+      </c>
       <c r="G193" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C194" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>154</v>
       </c>
+      <c r="E194" s="7">
+        <v>43986</v>
+      </c>
+      <c r="F194" s="7">
+        <v>43990</v>
+      </c>
       <c r="G194" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C195" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="E195" s="7">
+        <v>43985</v>
+      </c>
+      <c r="F195" s="7">
+        <v>43990</v>
+      </c>
       <c r="G195" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B196" s="3">
         <v>6.02</v>
       </c>
       <c r="C196" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>156</v>
       </c>
+      <c r="E196" s="7">
+        <v>43992</v>
+      </c>
+      <c r="F196" s="7">
+        <v>43994</v>
+      </c>
       <c r="G196" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B197" s="3">
         <v>6.03</v>
       </c>
       <c r="C197" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>157</v>
       </c>
+      <c r="E197" s="7">
+        <v>43995</v>
+      </c>
+      <c r="F197" s="7">
+        <v>43996</v>
+      </c>
       <c r="G197" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B198" s="3">
         <v>6.04</v>
       </c>
       <c r="C198" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>158</v>
       </c>
+      <c r="E198" s="7">
+        <v>43995</v>
+      </c>
+      <c r="F198" s="7">
+        <v>44009</v>
+      </c>
       <c r="G198" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B199" s="3">
         <v>6.05</v>
       </c>
       <c r="C199" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>159</v>
       </c>
+      <c r="E199" s="7">
+        <v>44009</v>
+      </c>
+      <c r="F199" s="7">
+        <v>44010</v>
+      </c>
       <c r="G199" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B200" s="3">
         <v>6.06</v>
       </c>
       <c r="C200" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>160</v>
       </c>
+      <c r="E200" s="7">
+        <v>44009</v>
+      </c>
+      <c r="F200" s="7">
+        <v>44011</v>
+      </c>
       <c r="G200" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C201" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E201" s="7">
+        <v>44009</v>
+      </c>
+      <c r="F201" s="7">
+        <v>44011</v>
+      </c>
       <c r="G201" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C202" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E202" s="7">
+        <v>44009</v>
+      </c>
+      <c r="F202" s="7">
+        <v>44011</v>
+      </c>
       <c r="G202" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C203" t="s">
         <v>328</v>
-      </c>
-      <c r="C203" t="s">
-        <v>334</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="E203" s="7">
+        <v>44009</v>
+      </c>
+      <c r="F203" s="7">
+        <v>44012</v>
+      </c>
       <c r="G203" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C204" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="E204" s="7">
+        <v>44009</v>
+      </c>
+      <c r="F204" s="7">
+        <v>44012</v>
+      </c>
       <c r="G204" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -5174,10 +6264,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5185,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5193,7 +6283,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5201,7 +6291,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5209,7 +6299,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5217,7 +6307,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
